--- a/TriggerBuckets.xlsx
+++ b/TriggerBuckets.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodieslab/docker_build/ask_detection/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA49B5-E5B7-4543-9903-C0AEB9590A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjGVKEPVzSyCLl9dD98yfpyF+M/7Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgacD9Ke2zMdayAgkqfqaipY95k4w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -48,15 +39,15 @@
     <t>//This comment is from the Default Sentiment header. Took it out so the column header could just be "Default Sentiment Value": Multiply the number in this column by the number in the "Sentiment Value" column of the Modality file (unless that value is NULL)</t>
   </si>
   <si>
+    <t>accumulate</t>
+  </si>
+  <si>
     <t>VB|VBP|VBZ|VBD|VBN|VBG</t>
   </si>
   <si>
     <t>PROTECT</t>
   </si>
   <si>
-    <t>accumulate</t>
-  </si>
-  <si>
     <t>adapt</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
   </si>
   <si>
     <t>generate</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>gift</t>
@@ -581,6 +569,9 @@
     <t>fuck</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
@@ -707,29 +698,23 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">BRODIE: I </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">think </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>this is okay. (The sentiment is dubious, but I think it's the best we can do).
 "Windows #Cabaret showcases premier #burlesque stars performing acts behind immense windows -- hold onto your masks and experience the sultriest social distancing in\u2026",
@@ -808,29 +793,23 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>Brodie: This is okay. &lt;-- with the</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CAVEAT THAT THIS IS A MODALITY WORD</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 "The mayor ordered new measures today to further reduce the spread of the virus, requiring people to wear masks on mass transit, or while running errands, etc. due to take effect at\u2026",
@@ -862,30 +841,24 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Brodie: This is okay. &lt;-- with the </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b/>
-        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">CAVEAT THAT THIS IS A MODALITY WORD
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>"Masks required, hand sanitizer.",
 "no mask required no sharing weights and definitely covid19 free!",
@@ -1062,56 +1035,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1119,7 +1078,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1129,13 +1088,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1146,85 +1099,84 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1414,32 +1366,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1025"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="26" width="7.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="12.13"/>
+    <col customWidth="1" min="2" max="4" width="7.63"/>
+    <col customWidth="1" min="5" max="5" width="23.38"/>
+    <col customWidth="1" min="6" max="6" width="16.88"/>
+    <col customWidth="1" min="7" max="7" width="21.0"/>
+    <col customWidth="1" min="8" max="8" width="17.5"/>
+    <col customWidth="1" min="9" max="9" width="19.75"/>
+    <col customWidth="1" min="10" max="26" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="125.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,3499 +1414,3499 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G22" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G23" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G24" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G25" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G27" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G29" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G31" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G35" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G36" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F42" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G42" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F44" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G44" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="10">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G48" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G51" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G52" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G53" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G54" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G55" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G56" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G57" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G58" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G59" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G60" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F61" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G61" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G62" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G63" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G64" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+        <v>8</v>
+      </c>
       <c r="E65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="10">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F65" s="11">
+        <v>3.0</v>
       </c>
       <c r="G65" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G66" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G67" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G68" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G69" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G70" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G71" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G72" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G73" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G74" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G75" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G76" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G77" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G78" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G79" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G80" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G81" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G82" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G83" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G84" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G85" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G86" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G87" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G88" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G89" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G90" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="11">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="F91" s="12">
+        <v>3.0</v>
       </c>
       <c r="G91" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G92" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G93" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G94" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G95" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G96" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G97" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G98" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G99" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G100" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G101" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F102" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G102" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G103" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G104" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G105" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G106" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G107" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G108" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F109" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G109" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F110" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G110" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F111" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G111" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F112" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G112" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G113" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G114" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G115" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G116" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F117" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G117" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G118" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F119" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G119" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G120" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F121" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G121" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G122" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F123" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G123" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G124" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G125" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F126" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G126" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G127" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F128" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G128" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F129" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G129" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F130" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G130" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F131" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G131" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F132" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G132" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="11">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="7">
+        <v>3.0</v>
       </c>
       <c r="G133" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="I133" s="11" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="B134" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="7">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="11">
+        <v>3.0</v>
       </c>
       <c r="G134" s="11">
-        <v>1</v>
-      </c>
-      <c r="I134" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11" t="s">
         <v>143</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F135" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G135" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F136" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G136" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11" t="s">
         <v>145</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G137" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F138" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G138" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F139" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G139" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F140" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G140" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F141" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G141" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F142" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G142" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11" t="s">
         <v>151</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G143" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11" t="s">
         <v>152</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G144" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F145" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G145" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11" t="s">
         <v>154</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F146" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G146" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F147" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G147" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11" t="s">
         <v>156</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G148" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11" t="s">
         <v>157</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G149" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11" t="s">
         <v>158</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G150" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F151" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G151" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11" t="s">
         <v>160</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F152" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G152" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G153" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="11" t="s">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="11">
-        <v>3</v>
-      </c>
-      <c r="G154" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F154" s="7">
+        <v>-3.0</v>
+      </c>
+      <c r="G154" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F155" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G155" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F156" s="7">
-        <v>-3</v>
-      </c>
-      <c r="G156" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F156" s="10">
+        <v>-3.0</v>
+      </c>
+      <c r="G156" s="11">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F157" s="10">
-        <v>-3</v>
-      </c>
-      <c r="G157" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F157" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G157" s="8">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F158" s="7">
-        <v>3</v>
+        <v>163</v>
+      </c>
+      <c r="F158" s="11">
+        <v>-3.0</v>
       </c>
       <c r="G158" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11" t="s">
         <v>169</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F159" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G159" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11" t="s">
         <v>170</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F160" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G160" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F161" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G161" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11" t="s">
         <v>172</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F162" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G162" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F163" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G163" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11" t="s">
         <v>174</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F164" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G164" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F165" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G165" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F166" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G166" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F167" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G167" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="11" t="s">
         <v>178</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F168" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G168" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F169" s="11">
-        <v>3</v>
+        <v>-3.0</v>
       </c>
       <c r="G169" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F170" s="11">
-        <v>-3</v>
+        <v>3.0</v>
       </c>
       <c r="G170" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F171" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G171" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F172" s="11">
-        <v>3</v>
-      </c>
-      <c r="G172" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F172" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="G172" s="12">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F173" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G173" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="11" t="s">
         <v>184</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F174" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G174" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="11" t="s">
         <v>185</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F175" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G175" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="11" t="s">
         <v>186</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F176" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G176" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F177" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G177" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B178" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F178" s="12">
-        <v>-3</v>
-      </c>
-      <c r="G178">
-        <v>-1</v>
-      </c>
-      <c r="I178" s="12" t="s">
+      <c r="B178" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F178" s="11">
+        <v>-3.0</v>
+      </c>
+      <c r="G178" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I178" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F179" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G179" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="11" t="s">
         <v>191</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F180" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G180" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B181" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F181" s="12">
-        <v>-3</v>
-      </c>
-      <c r="G181">
-        <v>-1</v>
-      </c>
-      <c r="I181" s="12" t="s">
+      <c r="B181" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F181" s="11">
+        <v>-3.0</v>
+      </c>
+      <c r="G181" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I181" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="11" t="s">
         <v>194</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F182" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G182" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F183" s="12">
-        <v>-3</v>
-      </c>
-      <c r="G183">
-        <v>-1</v>
-      </c>
-      <c r="I183" s="12" t="s">
+      <c r="B183" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F183" s="11">
+        <v>-3.0</v>
+      </c>
+      <c r="G183" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I183" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="11" t="s">
         <v>196</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F184" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G184" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="11" t="s">
         <v>197</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F185" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G185" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F186" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G186" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F187" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G187" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="11" t="s">
         <v>200</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F188" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G188" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="11" t="s">
         <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F189" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G189" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F190" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G190" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="11" t="s">
         <v>203</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F191" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G191" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="11" t="s">
         <v>204</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F192" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G192" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="11" t="s">
         <v>205</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F193" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G193" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="11" t="s">
         <v>206</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F194" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G194" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="11" t="s">
         <v>207</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F195" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G195" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -4964,21 +4914,21 @@
         <v>209</v>
       </c>
       <c r="F196" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G196" s="8">
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="I196" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="9" t="s">
         <v>211</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -4986,40 +4936,40 @@
         <v>209</v>
       </c>
       <c r="F197" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G197" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="15" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B198" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14" t="s">
+      <c r="B198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F198" s="16">
-        <v>3</v>
-      </c>
-      <c r="G198">
-        <v>-1</v>
-      </c>
-      <c r="I198" s="12" t="s">
+      <c r="F198" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I198" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -5027,38 +4977,38 @@
         <v>209</v>
       </c>
       <c r="F199" s="10">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G199" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="200">
       <c r="A200" s="11" t="s">
         <v>215</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>209</v>
       </c>
       <c r="F200" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G200" s="11">
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="I200" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
@@ -5066,19 +5016,19 @@
         <v>209</v>
       </c>
       <c r="F201" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G201" s="8">
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="9" t="s">
         <v>218</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
@@ -5086,21 +5036,21 @@
         <v>209</v>
       </c>
       <c r="F202" s="10">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G202" s="11">
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="I202" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
@@ -5108,40 +5058,40 @@
         <v>209</v>
       </c>
       <c r="F203" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G203" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="15" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B204" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="14" t="s">
+      <c r="B204" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F204" s="16">
-        <v>3</v>
-      </c>
-      <c r="G204" s="12">
-        <v>-1</v>
+      <c r="F204" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G204" s="11">
+        <v>-1.0</v>
       </c>
       <c r="I204" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="11" t="s">
         <v>223</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
@@ -5149,18 +5099,18 @@
         <v>209</v>
       </c>
       <c r="F205" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G205" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="11" t="s">
         <v>224</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
@@ -5168,18 +5118,18 @@
         <v>209</v>
       </c>
       <c r="F206" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G206" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="11" t="s">
         <v>225</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
@@ -5187,18 +5137,18 @@
         <v>209</v>
       </c>
       <c r="F207" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G207" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="11" t="s">
         <v>226</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
@@ -5206,40 +5156,40 @@
         <v>209</v>
       </c>
       <c r="F208" s="11">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G208" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B209" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14" t="s">
+      <c r="B209" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F209" s="12">
-        <v>3</v>
-      </c>
-      <c r="G209">
-        <v>-1</v>
-      </c>
-      <c r="I209" s="12" t="s">
+      <c r="F209" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G209" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I209" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="12" t="s">
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="11" t="s">
         <v>229</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
@@ -5247,21 +5197,21 @@
         <v>209</v>
       </c>
       <c r="F210" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G210" s="8">
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="I210" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="11" t="s">
         <v>231</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
@@ -5269,18 +5219,18 @@
         <v>209</v>
       </c>
       <c r="F211" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G211" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="11" t="s">
         <v>232</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
@@ -5288,18 +5238,18 @@
         <v>209</v>
       </c>
       <c r="F212" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G212" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="11" t="s">
         <v>233</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
@@ -5307,18 +5257,18 @@
         <v>209</v>
       </c>
       <c r="F213" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G213" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="9" t="s">
         <v>234</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
@@ -5326,18 +5276,18 @@
         <v>209</v>
       </c>
       <c r="F214" s="10">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G214" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="11" t="s">
         <v>235</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -5345,60 +5295,60 @@
         <v>209</v>
       </c>
       <c r="F215" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G215" s="8">
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="I215" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="12" t="s">
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B216" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="14" t="s">
+      <c r="B216" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F216" s="12">
-        <v>3</v>
-      </c>
-      <c r="G216">
-        <v>-1</v>
-      </c>
-      <c r="I216" s="12" t="s">
+      <c r="F216" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G216" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I216" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="11" t="s">
         <v>238</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E217" s="11" t="s">
         <v>209</v>
       </c>
       <c r="F217" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G217" s="11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="11" t="s">
         <v>239</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -5406,18 +5356,18 @@
         <v>209</v>
       </c>
       <c r="F218" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G218" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="11" t="s">
         <v>240</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -5425,62 +5375,62 @@
         <v>209</v>
       </c>
       <c r="F219" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G219" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B220" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14" t="s">
+      <c r="B220" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F220" s="12">
-        <v>3</v>
-      </c>
-      <c r="G220">
-        <v>-1</v>
-      </c>
-      <c r="I220" s="12" t="s">
+      <c r="F220" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G220" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I220" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="12" t="s">
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B221" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14" t="s">
+      <c r="B221" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F221" s="12">
-        <v>3</v>
-      </c>
-      <c r="G221">
-        <v>-1</v>
+      <c r="F221" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G221" s="8">
+        <v>-1.0</v>
       </c>
       <c r="I221" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="11" t="s">
         <v>245</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -5488,18 +5438,18 @@
         <v>209</v>
       </c>
       <c r="F222" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G222" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -5507,40 +5457,40 @@
         <v>209</v>
       </c>
       <c r="F223" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G223" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B224" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14" t="s">
+      <c r="B224" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F224" s="12">
-        <v>3</v>
-      </c>
-      <c r="G224">
-        <v>-1</v>
-      </c>
-      <c r="I224" s="12" t="s">
+      <c r="F224" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G224" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I224" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="11" t="s">
         <v>248</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
@@ -5548,18 +5498,18 @@
         <v>209</v>
       </c>
       <c r="F225" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G225" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="9" t="s">
         <v>249</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
@@ -5567,40 +5517,40 @@
         <v>209</v>
       </c>
       <c r="F226" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G226" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="15" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B227" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14" t="s">
+      <c r="B227" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F227" s="16">
-        <v>3</v>
-      </c>
-      <c r="G227">
-        <v>-1</v>
+      <c r="F227" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="G227" s="8">
+        <v>-1.0</v>
       </c>
       <c r="I227" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="11" t="s">
         <v>252</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
@@ -5608,40 +5558,40 @@
         <v>209</v>
       </c>
       <c r="F228" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G228" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="12" t="s">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14" t="s">
+      <c r="B229" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F229" s="12">
-        <v>3</v>
-      </c>
-      <c r="G229">
-        <v>-1</v>
-      </c>
-      <c r="I229" s="12" t="s">
+      <c r="F229" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G229" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="I229" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
@@ -5649,18 +5599,18 @@
         <v>209</v>
       </c>
       <c r="F230" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G230" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>256</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
@@ -5668,18 +5618,18 @@
         <v>209</v>
       </c>
       <c r="F232" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G232" s="8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
@@ -5687,18 +5637,18 @@
         <v>258</v>
       </c>
       <c r="F233" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G233" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
@@ -5706,18 +5656,18 @@
         <v>258</v>
       </c>
       <c r="F234" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G234" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="11" t="s">
         <v>260</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
@@ -5725,18 +5675,18 @@
         <v>258</v>
       </c>
       <c r="F235" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G235" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="11" t="s">
         <v>261</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
@@ -5744,18 +5694,18 @@
         <v>258</v>
       </c>
       <c r="F236" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G236" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="11" t="s">
         <v>262</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
@@ -5763,208 +5713,208 @@
         <v>258</v>
       </c>
       <c r="F237" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G237" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="11" t="s">
         <v>263</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E238" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F238" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G238" s="11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I238" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="11" t="s">
         <v>266</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E239" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F239" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G239" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="11" t="s">
         <v>267</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E240" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F240" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G240" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="11" t="s">
         <v>268</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E241" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F241" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G241" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="11" t="s">
         <v>269</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E242" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F242" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G242" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="11" t="s">
         <v>270</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E243" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F243" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G243" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="11" t="s">
         <v>271</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E244" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F244" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G244" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="11" t="s">
         <v>272</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F245" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G245" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="11" t="s">
         <v>273</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E246" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F246" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G246" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="11" t="s">
         <v>274</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E247" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F247" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G247" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="11" t="s">
         <v>275</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E248" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F248" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G248" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="11" t="s">
         <v>276</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -5972,174 +5922,174 @@
         <v>264</v>
       </c>
       <c r="F249" s="9">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G249" s="9">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I249" s="11" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="11" t="s">
         <v>278</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E250" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F250" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G250" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="11" t="s">
         <v>279</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E251" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F251" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G251" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="11" t="s">
         <v>280</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E252" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F252" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G252" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="11" t="s">
         <v>281</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E253" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F253" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G253" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="11" t="s">
         <v>282</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E254" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F254" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G254" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="11" t="s">
         <v>283</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E255" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F255" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G255" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="11" t="s">
         <v>284</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E256" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F256" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G256" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="11" t="s">
         <v>285</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E258" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F258" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G258" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E259" s="11" t="s">
         <v>264</v>
       </c>
       <c r="F259" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G259" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
@@ -6147,18 +6097,18 @@
         <v>288</v>
       </c>
       <c r="F260" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G260" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
@@ -6166,18 +6116,18 @@
         <v>288</v>
       </c>
       <c r="F261" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G261" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="11" t="s">
         <v>290</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
@@ -6185,18 +6135,18 @@
         <v>288</v>
       </c>
       <c r="F262" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G262" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
@@ -6204,21 +6154,21 @@
         <v>292</v>
       </c>
       <c r="F263" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G263" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I263" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="5" t="s">
         <v>294</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
@@ -6226,21 +6176,21 @@
         <v>292</v>
       </c>
       <c r="F264" s="7">
-        <v>-3</v>
+        <v>-3.0</v>
       </c>
       <c r="G264" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I264" s="11" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" ht="16.5" customHeight="1">
       <c r="A265" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
@@ -6248,18 +6198,18 @@
         <v>292</v>
       </c>
       <c r="F265" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G265" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
@@ -6267,70 +6217,70 @@
         <v>292</v>
       </c>
       <c r="F266" s="7">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G266" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E267" s="9" t="s">
         <v>292</v>
       </c>
       <c r="F267" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G267" s="11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I267" s="11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="11" t="s">
         <v>300</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E268" s="9" t="s">
         <v>292</v>
       </c>
       <c r="F268" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G268" s="11">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I268" s="11" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="11" t="s">
         <v>302</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E269" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F269" s="11">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="G269" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="5"/>
@@ -6339,7 +6289,7 @@
       <c r="F270" s="7"/>
       <c r="I270" s="11"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="5"/>
@@ -6348,818 +6298,815 @@
       <c r="F271" s="7"/>
       <c r="I271" s="11"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="3"/>
-      <c r="B272" s="20"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="21"/>
-      <c r="E272" s="21"/>
-      <c r="F272" s="21"/>
-      <c r="G272" s="21"/>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="A272" s="19"/>
+      <c r="B272" s="19"/>
       <c r="I272" s="11"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="12"/>
-      <c r="B273" s="13"/>
-      <c r="E273" s="12"/>
-      <c r="F273" s="12"/>
-      <c r="G273" s="12"/>
-      <c r="H273" s="12"/>
-    </row>
-    <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="15"/>
-      <c r="B274" s="13"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
-      <c r="E274" s="14"/>
-      <c r="F274" s="19"/>
-      <c r="H274" s="12"/>
-    </row>
-    <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="12"/>
-      <c r="B275" s="13"/>
-      <c r="E275" s="12"/>
-      <c r="F275" s="12"/>
-      <c r="G275" s="12"/>
-      <c r="H275" s="12"/>
-    </row>
-    <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="15"/>
-      <c r="B276" s="13"/>
-      <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
-      <c r="E276" s="14"/>
-      <c r="F276" s="16"/>
-      <c r="H276" s="12"/>
-    </row>
-    <row r="277" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="15"/>
-      <c r="B277" s="13"/>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
-      <c r="E277" s="14"/>
-      <c r="F277" s="16"/>
-      <c r="H277" s="12"/>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="A273" s="11"/>
+      <c r="B273" s="6"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="A274" s="9"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="7"/>
+      <c r="H274" s="11"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="A275" s="11"/>
+      <c r="B275" s="6"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="A276" s="9"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="10"/>
+      <c r="H276" s="11"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="A277" s="9"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="10"/>
+      <c r="H277" s="11"/>
       <c r="I277" s="17"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="15"/>
-      <c r="B278" s="13"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
-      <c r="E278" s="14"/>
-      <c r="F278" s="19"/>
-      <c r="H278" s="12"/>
-    </row>
-    <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="A278" s="9"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="7"/>
+      <c r="H278" s="11"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B272:G272"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TriggerBuckets.xlsx
+++ b/TriggerBuckets.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodieslab/docker_build/ask_detection/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA1E284-3718-0E4F-A3BB-727103B49AFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgacD9Ke2zMdayAgkqfqaipY95k4w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgc7WoaK2/NT89H6dxg1yV+UEmMlw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="311">
   <si>
     <t>Lexical item</t>
   </si>
@@ -569,9 +579,6 @@
     <t>fuck</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -698,23 +705,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">BRODIE: I </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">think </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>this is okay. (The sentiment is dubious, but I think it's the best we can do).
 "Windows #Cabaret showcases premier #burlesque stars performing acts behind immense windows -- hold onto your masks and experience the sultriest social distancing in\u2026",
@@ -760,9 +773,6 @@
     <t>impose</t>
   </si>
   <si>
-    <t>lift</t>
-  </si>
-  <si>
     <t>limit</t>
   </si>
   <si>
@@ -793,23 +803,29 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>Brodie: This is okay. &lt;-- with the</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CAVEAT THAT THIS IS A MODALITY WORD</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 "The mayor ordered new measures today to further reduce the spread of the virus, requiring people to wear masks on mass transit, or while running errands, etc. due to take effect at\u2026",
@@ -841,24 +857,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Brodie: This is okay. &lt;-- with the </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">CAVEAT THAT THIS IS A MODALITY WORD
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
+        <family val="2"/>
       </rPr>
       <t>"Masks required, hand sanitizer.",
 "no mask required no sharing weights and definitely covid19 free!",
@@ -1031,46 +1053,97 @@
   <si>
     <t>TEST_TRACE</t>
   </si>
+  <si>
+    <t>administer</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>Added by resource building process 7/27/21</t>
+  </si>
+  <si>
+    <t>REQUIRE</t>
+  </si>
+  <si>
+    <t>Added this new category and took these words from RESTRICT 7/28/21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1078,7 +1151,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1088,7 +1161,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1099,84 +1178,80 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1366,30 +1441,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1037"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.13"/>
-    <col customWidth="1" min="2" max="4" width="7.63"/>
-    <col customWidth="1" min="5" max="5" width="23.38"/>
-    <col customWidth="1" min="6" max="6" width="16.88"/>
-    <col customWidth="1" min="7" max="7" width="21.0"/>
-    <col customWidth="1" min="8" max="8" width="17.5"/>
-    <col customWidth="1" min="9" max="9" width="19.75"/>
-    <col customWidth="1" min="10" max="26" width="7.63"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="57.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="125.25" customHeight="1">
+    <row r="1" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1427,13 +1504,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1446,13 +1523,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1465,13 +1542,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -1484,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1501,13 +1578,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1518,13 +1595,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1535,13 +1612,13 @@
         <v>9</v>
       </c>
       <c r="F8" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1552,13 +1629,13 @@
         <v>9</v>
       </c>
       <c r="F9" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -1569,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -1586,13 +1663,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1603,13 +1680,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1620,13 +1697,13 @@
         <v>9</v>
       </c>
       <c r="F13" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -1637,13 +1714,13 @@
         <v>9</v>
       </c>
       <c r="F14" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -1654,13 +1731,13 @@
         <v>9</v>
       </c>
       <c r="F15" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
@@ -1671,13 +1748,13 @@
         <v>9</v>
       </c>
       <c r="F16" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G16" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
@@ -1688,13 +1765,13 @@
         <v>9</v>
       </c>
       <c r="F17" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G17" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
@@ -1705,13 +1782,13 @@
         <v>9</v>
       </c>
       <c r="F18" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
@@ -1722,13 +1799,13 @@
         <v>9</v>
       </c>
       <c r="F19" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -1739,13 +1816,13 @@
         <v>9</v>
       </c>
       <c r="F20" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G20" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -1756,13 +1833,13 @@
         <v>9</v>
       </c>
       <c r="F21" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
@@ -1773,13 +1850,13 @@
         <v>9</v>
       </c>
       <c r="F22" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
@@ -1790,13 +1867,13 @@
         <v>9</v>
       </c>
       <c r="F23" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
@@ -1807,13 +1884,13 @@
         <v>9</v>
       </c>
       <c r="F24" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>32</v>
       </c>
@@ -1826,13 +1903,13 @@
         <v>9</v>
       </c>
       <c r="F25" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
@@ -1845,13 +1922,13 @@
         <v>9</v>
       </c>
       <c r="F26" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>34</v>
       </c>
@@ -1864,13 +1941,13 @@
         <v>9</v>
       </c>
       <c r="F27" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>35</v>
       </c>
@@ -1883,13 +1960,13 @@
         <v>9</v>
       </c>
       <c r="F28" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
@@ -1902,13 +1979,13 @@
         <v>9</v>
       </c>
       <c r="F29" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -1921,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="F30" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G30" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
@@ -1940,13 +2017,13 @@
         <v>9</v>
       </c>
       <c r="F31" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G31" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>39</v>
       </c>
@@ -1959,13 +2036,13 @@
         <v>9</v>
       </c>
       <c r="F32" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
@@ -1978,13 +2055,13 @@
         <v>9</v>
       </c>
       <c r="F33" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G33" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
@@ -1997,13 +2074,13 @@
         <v>9</v>
       </c>
       <c r="F34" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>42</v>
       </c>
@@ -2016,13 +2093,13 @@
         <v>9</v>
       </c>
       <c r="F35" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
@@ -2035,13 +2112,13 @@
         <v>9</v>
       </c>
       <c r="F36" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
@@ -2054,13 +2131,13 @@
         <v>9</v>
       </c>
       <c r="F37" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
@@ -2073,13 +2150,13 @@
         <v>9</v>
       </c>
       <c r="F38" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>46</v>
       </c>
@@ -2092,13 +2169,13 @@
         <v>9</v>
       </c>
       <c r="F39" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>47</v>
       </c>
@@ -2111,13 +2188,13 @@
         <v>9</v>
       </c>
       <c r="F40" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
@@ -2130,13 +2207,13 @@
         <v>9</v>
       </c>
       <c r="F41" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>49</v>
       </c>
@@ -2149,13 +2226,13 @@
         <v>9</v>
       </c>
       <c r="F42" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G42" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -2168,13 +2245,13 @@
         <v>9</v>
       </c>
       <c r="F43" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -2187,13 +2264,13 @@
         <v>9</v>
       </c>
       <c r="F44" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
@@ -2206,13 +2283,13 @@
         <v>9</v>
       </c>
       <c r="F45" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
@@ -2225,13 +2302,13 @@
         <v>9</v>
       </c>
       <c r="F46" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G46" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>54</v>
       </c>
@@ -2244,13 +2321,13 @@
         <v>9</v>
       </c>
       <c r="F47" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G47" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>55</v>
       </c>
@@ -2263,13 +2340,13 @@
         <v>9</v>
       </c>
       <c r="F48" s="10">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G48" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>56</v>
       </c>
@@ -2282,13 +2359,13 @@
         <v>9</v>
       </c>
       <c r="F49" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>57</v>
       </c>
@@ -2301,13 +2378,13 @@
         <v>9</v>
       </c>
       <c r="F50" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>58</v>
       </c>
@@ -2320,13 +2397,13 @@
         <v>9</v>
       </c>
       <c r="F51" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G51" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
@@ -2339,13 +2416,13 @@
         <v>9</v>
       </c>
       <c r="F52" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
@@ -2358,13 +2435,13 @@
         <v>9</v>
       </c>
       <c r="F53" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
@@ -2377,13 +2454,13 @@
         <v>9</v>
       </c>
       <c r="F54" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
@@ -2396,13 +2473,13 @@
         <v>9</v>
       </c>
       <c r="F55" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -2415,13 +2492,13 @@
         <v>9</v>
       </c>
       <c r="F56" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>64</v>
       </c>
@@ -2434,13 +2511,13 @@
         <v>9</v>
       </c>
       <c r="F57" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>65</v>
       </c>
@@ -2453,13 +2530,13 @@
         <v>9</v>
       </c>
       <c r="F58" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G58" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>66</v>
       </c>
@@ -2472,13 +2549,13 @@
         <v>9</v>
       </c>
       <c r="F59" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>67</v>
       </c>
@@ -2491,13 +2568,13 @@
         <v>9</v>
       </c>
       <c r="F60" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G60" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
@@ -2510,13 +2587,13 @@
         <v>9</v>
       </c>
       <c r="F61" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G61" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>69</v>
       </c>
@@ -2529,13 +2606,13 @@
         <v>9</v>
       </c>
       <c r="F62" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>70</v>
       </c>
@@ -2548,13 +2625,13 @@
         <v>9</v>
       </c>
       <c r="F63" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G63" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>71</v>
       </c>
@@ -2567,13 +2644,13 @@
         <v>9</v>
       </c>
       <c r="F64" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>72</v>
       </c>
@@ -2584,13 +2661,13 @@
         <v>9</v>
       </c>
       <c r="F65" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G65" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>73</v>
       </c>
@@ -2601,13 +2678,13 @@
         <v>9</v>
       </c>
       <c r="F66" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G66" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>74</v>
       </c>
@@ -2618,13 +2695,13 @@
         <v>9</v>
       </c>
       <c r="F67" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>75</v>
       </c>
@@ -2635,13 +2712,13 @@
         <v>9</v>
       </c>
       <c r="F68" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G68" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>76</v>
       </c>
@@ -2652,13 +2729,13 @@
         <v>9</v>
       </c>
       <c r="F69" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G69" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>77</v>
       </c>
@@ -2669,13 +2746,13 @@
         <v>9</v>
       </c>
       <c r="F70" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G70" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>78</v>
       </c>
@@ -2686,13 +2763,13 @@
         <v>9</v>
       </c>
       <c r="F71" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G71" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>79</v>
       </c>
@@ -2703,13 +2780,13 @@
         <v>9</v>
       </c>
       <c r="F72" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G72" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>80</v>
       </c>
@@ -2720,13 +2797,13 @@
         <v>9</v>
       </c>
       <c r="F73" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G73" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>81</v>
       </c>
@@ -2737,13 +2814,13 @@
         <v>9</v>
       </c>
       <c r="F74" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G74" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>82</v>
       </c>
@@ -2754,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="F75" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G75" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>83</v>
       </c>
@@ -2771,13 +2848,13 @@
         <v>9</v>
       </c>
       <c r="F76" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G76" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>84</v>
       </c>
@@ -2788,13 +2865,13 @@
         <v>9</v>
       </c>
       <c r="F77" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G77" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>85</v>
       </c>
@@ -2805,13 +2882,13 @@
         <v>9</v>
       </c>
       <c r="F78" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G78" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>86</v>
       </c>
@@ -2822,13 +2899,13 @@
         <v>9</v>
       </c>
       <c r="F79" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G79" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>87</v>
       </c>
@@ -2839,13 +2916,13 @@
         <v>9</v>
       </c>
       <c r="F80" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G80" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
@@ -2856,13 +2933,13 @@
         <v>9</v>
       </c>
       <c r="F81" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G81" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>89</v>
       </c>
@@ -2873,13 +2950,13 @@
         <v>9</v>
       </c>
       <c r="F82" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G82" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>90</v>
       </c>
@@ -2890,13 +2967,13 @@
         <v>9</v>
       </c>
       <c r="F83" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G83" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>91</v>
       </c>
@@ -2907,13 +2984,13 @@
         <v>9</v>
       </c>
       <c r="F84" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G84" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>92</v>
       </c>
@@ -2924,13 +3001,13 @@
         <v>9</v>
       </c>
       <c r="F85" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G85" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>93</v>
       </c>
@@ -2941,13 +3018,13 @@
         <v>9</v>
       </c>
       <c r="F86" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G86" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>94</v>
       </c>
@@ -2958,13 +3035,13 @@
         <v>9</v>
       </c>
       <c r="F87" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G87" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>95</v>
       </c>
@@ -2975,13 +3052,13 @@
         <v>9</v>
       </c>
       <c r="F88" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G88" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>96</v>
       </c>
@@ -2992,13 +3069,13 @@
         <v>9</v>
       </c>
       <c r="F89" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G89" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>97</v>
       </c>
@@ -3009,13 +3086,13 @@
         <v>9</v>
       </c>
       <c r="F90" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G90" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>98</v>
       </c>
@@ -3026,13 +3103,13 @@
         <v>9</v>
       </c>
       <c r="F91" s="12">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G91" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>99</v>
       </c>
@@ -3043,13 +3120,13 @@
         <v>9</v>
       </c>
       <c r="F92" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G92" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>100</v>
       </c>
@@ -3060,13 +3137,13 @@
         <v>9</v>
       </c>
       <c r="F93" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G93" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>101</v>
       </c>
@@ -3077,13 +3154,13 @@
         <v>9</v>
       </c>
       <c r="F94" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G94" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>102</v>
       </c>
@@ -3094,13 +3171,13 @@
         <v>9</v>
       </c>
       <c r="F95" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G95" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>103</v>
       </c>
@@ -3111,13 +3188,13 @@
         <v>9</v>
       </c>
       <c r="F96" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G96" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>104</v>
       </c>
@@ -3128,13 +3205,13 @@
         <v>9</v>
       </c>
       <c r="F97" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G97" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>105</v>
       </c>
@@ -3145,13 +3222,13 @@
         <v>9</v>
       </c>
       <c r="F98" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G98" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>106</v>
       </c>
@@ -3162,13 +3239,13 @@
         <v>9</v>
       </c>
       <c r="F99" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G99" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>107</v>
       </c>
@@ -3179,13 +3256,13 @@
         <v>9</v>
       </c>
       <c r="F100" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G100" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>108</v>
       </c>
@@ -3196,13 +3273,13 @@
         <v>9</v>
       </c>
       <c r="F101" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G101" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>109</v>
       </c>
@@ -3213,13 +3290,13 @@
         <v>9</v>
       </c>
       <c r="F102" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G102" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>110</v>
       </c>
@@ -3230,13 +3307,13 @@
         <v>9</v>
       </c>
       <c r="F103" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G103" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>111</v>
       </c>
@@ -3247,13 +3324,13 @@
         <v>9</v>
       </c>
       <c r="F104" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G104" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>112</v>
       </c>
@@ -3264,13 +3341,13 @@
         <v>9</v>
       </c>
       <c r="F105" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G105" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>113</v>
       </c>
@@ -3281,13 +3358,13 @@
         <v>9</v>
       </c>
       <c r="F106" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G106" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>114</v>
       </c>
@@ -3298,13 +3375,13 @@
         <v>9</v>
       </c>
       <c r="F107" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G107" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>115</v>
       </c>
@@ -3315,13 +3392,13 @@
         <v>9</v>
       </c>
       <c r="F108" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G108" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>116</v>
       </c>
@@ -3332,13 +3409,13 @@
         <v>9</v>
       </c>
       <c r="F109" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G109" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>117</v>
       </c>
@@ -3349,13 +3426,13 @@
         <v>9</v>
       </c>
       <c r="F110" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G110" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>118</v>
       </c>
@@ -3366,13 +3443,13 @@
         <v>9</v>
       </c>
       <c r="F111" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G111" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>119</v>
       </c>
@@ -3383,13 +3460,13 @@
         <v>9</v>
       </c>
       <c r="F112" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G112" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>120</v>
       </c>
@@ -3400,13 +3477,13 @@
         <v>9</v>
       </c>
       <c r="F113" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G113" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>121</v>
       </c>
@@ -3417,13 +3494,13 @@
         <v>9</v>
       </c>
       <c r="F114" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G114" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>122</v>
       </c>
@@ -3434,13 +3511,13 @@
         <v>9</v>
       </c>
       <c r="F115" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G115" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>123</v>
       </c>
@@ -3451,13 +3528,13 @@
         <v>9</v>
       </c>
       <c r="F116" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G116" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>124</v>
       </c>
@@ -3468,13 +3545,13 @@
         <v>9</v>
       </c>
       <c r="F117" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G117" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>125</v>
       </c>
@@ -3485,13 +3562,13 @@
         <v>9</v>
       </c>
       <c r="F118" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G118" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>126</v>
       </c>
@@ -3502,13 +3579,13 @@
         <v>9</v>
       </c>
       <c r="F119" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G119" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>127</v>
       </c>
@@ -3519,13 +3596,13 @@
         <v>9</v>
       </c>
       <c r="F120" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G120" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>128</v>
       </c>
@@ -3536,13 +3613,13 @@
         <v>9</v>
       </c>
       <c r="F121" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G121" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>129</v>
       </c>
@@ -3553,13 +3630,13 @@
         <v>9</v>
       </c>
       <c r="F122" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G122" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>130</v>
       </c>
@@ -3570,13 +3647,13 @@
         <v>9</v>
       </c>
       <c r="F123" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G123" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>131</v>
       </c>
@@ -3587,13 +3664,13 @@
         <v>9</v>
       </c>
       <c r="F124" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G124" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>132</v>
       </c>
@@ -3604,13 +3681,13 @@
         <v>9</v>
       </c>
       <c r="F125" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G125" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>133</v>
       </c>
@@ -3621,13 +3698,13 @@
         <v>9</v>
       </c>
       <c r="F126" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G126" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>134</v>
       </c>
@@ -3638,13 +3715,13 @@
         <v>9</v>
       </c>
       <c r="F127" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G127" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>135</v>
       </c>
@@ -3655,13 +3732,13 @@
         <v>9</v>
       </c>
       <c r="F128" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G128" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>136</v>
       </c>
@@ -3672,13 +3749,13 @@
         <v>9</v>
       </c>
       <c r="F129" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G129" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>137</v>
       </c>
@@ -3689,13 +3766,13 @@
         <v>9</v>
       </c>
       <c r="F130" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G130" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>138</v>
       </c>
@@ -3706,13 +3783,13 @@
         <v>9</v>
       </c>
       <c r="F131" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G131" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>139</v>
       </c>
@@ -3723,13 +3800,13 @@
         <v>9</v>
       </c>
       <c r="F132" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G132" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>140</v>
       </c>
@@ -3742,16 +3819,16 @@
         <v>9</v>
       </c>
       <c r="F133" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G133" s="11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I133" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>142</v>
       </c>
@@ -3762,13 +3839,13 @@
         <v>9</v>
       </c>
       <c r="F134" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G134" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>143</v>
       </c>
@@ -3779,13 +3856,13 @@
         <v>9</v>
       </c>
       <c r="F135" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G135" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>144</v>
       </c>
@@ -3796,13 +3873,13 @@
         <v>9</v>
       </c>
       <c r="F136" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G136" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>145</v>
       </c>
@@ -3813,13 +3890,13 @@
         <v>9</v>
       </c>
       <c r="F137" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G137" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>146</v>
       </c>
@@ -3830,13 +3907,13 @@
         <v>9</v>
       </c>
       <c r="F138" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G138" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>147</v>
       </c>
@@ -3847,13 +3924,13 @@
         <v>9</v>
       </c>
       <c r="F139" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G139" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>148</v>
       </c>
@@ -3864,13 +3941,13 @@
         <v>9</v>
       </c>
       <c r="F140" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G140" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>149</v>
       </c>
@@ -3881,13 +3958,13 @@
         <v>9</v>
       </c>
       <c r="F141" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G141" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>150</v>
       </c>
@@ -3898,13 +3975,13 @@
         <v>9</v>
       </c>
       <c r="F142" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G142" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>151</v>
       </c>
@@ -3915,13 +3992,13 @@
         <v>9</v>
       </c>
       <c r="F143" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G143" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>152</v>
       </c>
@@ -3932,13 +4009,13 @@
         <v>9</v>
       </c>
       <c r="F144" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G144" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>153</v>
       </c>
@@ -3949,13 +4026,13 @@
         <v>9</v>
       </c>
       <c r="F145" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G145" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>154</v>
       </c>
@@ -3966,13 +4043,13 @@
         <v>9</v>
       </c>
       <c r="F146" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G146" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>155</v>
       </c>
@@ -3983,13 +4060,13 @@
         <v>9</v>
       </c>
       <c r="F147" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G147" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>156</v>
       </c>
@@ -4000,13 +4077,13 @@
         <v>9</v>
       </c>
       <c r="F148" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G148" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>157</v>
       </c>
@@ -4017,13 +4094,13 @@
         <v>9</v>
       </c>
       <c r="F149" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G149" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>158</v>
       </c>
@@ -4034,13 +4111,13 @@
         <v>9</v>
       </c>
       <c r="F150" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G150" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>159</v>
       </c>
@@ -4051,13 +4128,13 @@
         <v>9</v>
       </c>
       <c r="F151" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G151" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>160</v>
       </c>
@@ -4068,13 +4145,13 @@
         <v>9</v>
       </c>
       <c r="F152" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G152" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>161</v>
       </c>
@@ -4085,13 +4162,13 @@
         <v>9</v>
       </c>
       <c r="F153" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G153" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>162</v>
       </c>
@@ -4104,16 +4181,16 @@
         <v>163</v>
       </c>
       <c r="F154" s="7">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G154" s="8">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="I154" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>165</v>
       </c>
@@ -4126,13 +4203,13 @@
         <v>163</v>
       </c>
       <c r="F155" s="7">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G155" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>166</v>
       </c>
@@ -4145,13 +4222,13 @@
         <v>163</v>
       </c>
       <c r="F156" s="10">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G156" s="11">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>167</v>
       </c>
@@ -4164,13 +4241,13 @@
         <v>163</v>
       </c>
       <c r="F157" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G157" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>168</v>
       </c>
@@ -4183,13 +4260,13 @@
         <v>163</v>
       </c>
       <c r="F158" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G158" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>169</v>
       </c>
@@ -4202,13 +4279,13 @@
         <v>163</v>
       </c>
       <c r="F159" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G159" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>170</v>
       </c>
@@ -4221,13 +4298,13 @@
         <v>163</v>
       </c>
       <c r="F160" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G160" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>171</v>
       </c>
@@ -4240,13 +4317,13 @@
         <v>163</v>
       </c>
       <c r="F161" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G161" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>172</v>
       </c>
@@ -4259,13 +4336,13 @@
         <v>163</v>
       </c>
       <c r="F162" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G162" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>173</v>
       </c>
@@ -4278,13 +4355,13 @@
         <v>163</v>
       </c>
       <c r="F163" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G163" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>174</v>
       </c>
@@ -4297,13 +4374,13 @@
         <v>163</v>
       </c>
       <c r="F164" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G164" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>175</v>
       </c>
@@ -4316,13 +4393,13 @@
         <v>163</v>
       </c>
       <c r="F165" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G165" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>176</v>
       </c>
@@ -4335,13 +4412,13 @@
         <v>163</v>
       </c>
       <c r="F166" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G166" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>177</v>
       </c>
@@ -4354,13 +4431,13 @@
         <v>163</v>
       </c>
       <c r="F167" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G167" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>178</v>
       </c>
@@ -4373,13 +4450,13 @@
         <v>163</v>
       </c>
       <c r="F168" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G168" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>179</v>
       </c>
@@ -4392,13 +4469,13 @@
         <v>163</v>
       </c>
       <c r="F169" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G169" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>180</v>
       </c>
@@ -4411,13 +4488,13 @@
         <v>163</v>
       </c>
       <c r="F170" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G170" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>181</v>
       </c>
@@ -4430,32 +4507,32 @@
         <v>163</v>
       </c>
       <c r="F171" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G171" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="13" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B172" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="12" t="s">
+      <c r="B172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F172" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="G172" s="12">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
+      <c r="F172" s="11">
+        <v>-3</v>
+      </c>
+      <c r="G172" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>183</v>
       </c>
@@ -4468,13 +4545,13 @@
         <v>163</v>
       </c>
       <c r="F173" s="11">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G173" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>184</v>
       </c>
@@ -4487,13 +4564,13 @@
         <v>163</v>
       </c>
       <c r="F174" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G174" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>185</v>
       </c>
@@ -4506,13 +4583,13 @@
         <v>163</v>
       </c>
       <c r="F175" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G175" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="G175" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>186</v>
       </c>
@@ -4525,13 +4602,13 @@
         <v>163</v>
       </c>
       <c r="F176" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G176" s="11">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
+        <v>-3</v>
+      </c>
+      <c r="G176" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
         <v>187</v>
       </c>
@@ -4544,15 +4621,18 @@
         <v>163</v>
       </c>
       <c r="F177" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G177" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I177" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>8</v>
@@ -4563,16 +4643,13 @@
         <v>163</v>
       </c>
       <c r="F178" s="11">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G178" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I178" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
         <v>190</v>
       </c>
@@ -4585,13 +4662,13 @@
         <v>163</v>
       </c>
       <c r="F179" s="11">
-        <v>3.0</v>
+        <v>-3</v>
       </c>
       <c r="G179" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>191</v>
       </c>
@@ -4604,15 +4681,18 @@
         <v>163</v>
       </c>
       <c r="F180" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G180" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I180" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>8</v>
@@ -4623,16 +4703,13 @@
         <v>163</v>
       </c>
       <c r="F181" s="11">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G181" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>194</v>
       </c>
@@ -4645,13 +4722,16 @@
         <v>163</v>
       </c>
       <c r="F182" s="11">
-        <v>3.0</v>
+        <v>-3</v>
       </c>
       <c r="G182" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
         <v>195</v>
       </c>
@@ -4664,16 +4744,13 @@
         <v>163</v>
       </c>
       <c r="F183" s="11">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G183" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I183" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
         <v>196</v>
       </c>
@@ -4686,13 +4763,13 @@
         <v>163</v>
       </c>
       <c r="F184" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G184" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>197</v>
       </c>
@@ -4705,13 +4782,13 @@
         <v>163</v>
       </c>
       <c r="F185" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G185" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>198</v>
       </c>
@@ -4724,13 +4801,13 @@
         <v>163</v>
       </c>
       <c r="F186" s="11">
-        <v>3.0</v>
+        <v>-3</v>
       </c>
       <c r="G186" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>199</v>
       </c>
@@ -4743,13 +4820,13 @@
         <v>163</v>
       </c>
       <c r="F187" s="11">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G187" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>200</v>
       </c>
@@ -4762,14 +4839,14 @@
         <v>163</v>
       </c>
       <c r="F188" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G188" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="11" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -4780,15 +4857,15 @@
       <c r="E189" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F189" s="11">
-        <v>3.0</v>
+      <c r="F189" s="7">
+        <v>3</v>
       </c>
       <c r="G189" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="5" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -4799,14 +4876,14 @@
       <c r="E190" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F190" s="7">
-        <v>3.0</v>
+      <c r="F190" s="11">
+        <v>-3</v>
       </c>
       <c r="G190" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>203</v>
       </c>
@@ -4819,13 +4896,13 @@
         <v>163</v>
       </c>
       <c r="F191" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G191" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>204</v>
       </c>
@@ -4838,13 +4915,13 @@
         <v>163</v>
       </c>
       <c r="F192" s="11">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="G192" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>205</v>
       </c>
@@ -4857,13 +4934,13 @@
         <v>163</v>
       </c>
       <c r="F193" s="11">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G193" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
         <v>206</v>
       </c>
@@ -4876,14 +4953,14 @@
         <v>163</v>
       </c>
       <c r="F194" s="11">
-        <v>3.0</v>
+        <v>-3</v>
       </c>
       <c r="G194" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="11" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -4892,18 +4969,21 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F195" s="11">
-        <v>-3.0</v>
+        <v>208</v>
+      </c>
+      <c r="F195" s="7">
+        <v>3</v>
       </c>
       <c r="G195" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="5" t="s">
-        <v>208</v>
+        <v>-1</v>
+      </c>
+      <c r="I195" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>8</v>
@@ -4911,19 +4991,16 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F196" s="7">
-        <v>3.0</v>
+        <v>208</v>
+      </c>
+      <c r="F196" s="10">
+        <v>3</v>
       </c>
       <c r="G196" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I196" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>211</v>
       </c>
@@ -4933,18 +5010,21 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F197" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G197" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I197" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>8</v>
@@ -4952,58 +5032,56 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F198" s="10">
-        <v>3.0</v>
+        <v>-3</v>
       </c>
       <c r="G198" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I198" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="9" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F199" s="10">
-        <v>-3.0</v>
-      </c>
-      <c r="G199" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="11" t="s">
+      <c r="E199" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F199" s="11">
+        <v>-3</v>
+      </c>
+      <c r="G199" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I199" s="11" t="s">
         <v>215</v>
       </c>
+    </row>
+    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="B200" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E200" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F200" s="11">
-        <v>-3.0</v>
-      </c>
-      <c r="G200" s="11">
-        <v>-1.0</v>
-      </c>
-      <c r="I200" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F200" s="10">
+        <v>3</v>
+      </c>
+      <c r="G200" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I200" s="13"/>
+    </row>
+    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>217</v>
       </c>
@@ -5013,19 +5091,21 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F201" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="G201" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I201" s="17"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+        <v>-3</v>
+      </c>
+      <c r="G201" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I201" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>8</v>
@@ -5033,19 +5113,16 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F202" s="10">
-        <v>-3.0</v>
+        <v>3</v>
       </c>
       <c r="G202" s="11">
-        <v>-1.0</v>
-      </c>
-      <c r="I202" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>220</v>
       </c>
@@ -5055,18 +5132,21 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F203" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G203" s="11">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="9" t="s">
+        <v>-1</v>
+      </c>
+      <c r="I203" s="11" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>8</v>
@@ -5074,21 +5154,18 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F204" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="G204" s="11">
-        <v>-1.0</v>
-      </c>
-      <c r="I204" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
+        <v>208</v>
+      </c>
+      <c r="F204" s="11">
+        <v>3</v>
+      </c>
+      <c r="G204" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>8</v>
@@ -5096,18 +5173,18 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F205" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G205" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
+        <v>-3</v>
+      </c>
+      <c r="G205" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>8</v>
@@ -5115,18 +5192,21 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F206" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G206" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I206" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>8</v>
@@ -5134,81 +5214,79 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F207" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G207" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
-      <c r="E208" s="5" t="s">
-        <v>209</v>
+      <c r="E208" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F208" s="11">
-        <v>-3.0</v>
-      </c>
-      <c r="G208" s="11">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="G208" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
-      <c r="E209" s="5" t="s">
-        <v>209</v>
+      <c r="E209" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F209" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G209" s="8">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5" t="s">
-        <v>209</v>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F210" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G210" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I210" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+      <c r="I210" s="11"/>
+    </row>
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>8</v>
@@ -5216,18 +5294,18 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F211" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G211" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>8</v>
@@ -5235,18 +5313,18 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F212" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G212" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>8</v>
@@ -5254,18 +5332,21 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F213" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G213" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="9" t="s">
-        <v>234</v>
+        <v>-1</v>
+      </c>
+      <c r="I213" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>8</v>
@@ -5273,40 +5354,37 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F214" s="10">
-        <v>-3.0</v>
+        <v>208</v>
+      </c>
+      <c r="F214" s="11">
+        <v>3</v>
       </c>
       <c r="G214" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="11" t="s">
-        <v>235</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
-      <c r="E215" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F215" s="11">
-        <v>3.0</v>
+      <c r="E215" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F215" s="7">
+        <v>-3</v>
       </c>
       <c r="G215" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I215" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>8</v>
@@ -5314,38 +5392,37 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F216" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G216" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I216" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="11" t="s">
-        <v>238</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E217" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F217" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G217" s="11">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F217" s="7">
+        <v>-3</v>
+      </c>
+      <c r="G217" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>8</v>
@@ -5353,18 +5430,21 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F218" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G218" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="11" t="s">
-        <v>240</v>
+        <v>-1</v>
+      </c>
+      <c r="I218" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>8</v>
@@ -5372,221 +5452,251 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F219" s="11">
-        <v>3.0</v>
+        <v>208</v>
+      </c>
+      <c r="F219" s="7">
+        <v>3</v>
       </c>
       <c r="G219" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
-      <c r="E220" s="5" t="s">
-        <v>209</v>
+      <c r="E220" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="F220" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G220" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I220" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H220" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
-      <c r="E221" s="5" t="s">
-        <v>209</v>
+      <c r="E221" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="F221" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G221" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I221" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H221" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
-      <c r="E222" s="5" t="s">
-        <v>209</v>
+      <c r="E222" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="F222" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G222" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="5" t="s">
-        <v>246</v>
+        <v>1</v>
+      </c>
+      <c r="H222" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I222" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
-      <c r="E223" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F223" s="7">
-        <v>-3.0</v>
+      <c r="E223" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F223" s="11">
+        <v>3</v>
       </c>
       <c r="G223" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H223" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
-      <c r="E224" s="5" t="s">
-        <v>209</v>
+      <c r="E224" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="F224" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G224" s="8">
-        <v>-1.0</v>
+        <v>1</v>
+      </c>
+      <c r="H224" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="I224" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
-      <c r="E225" s="5" t="s">
-        <v>209</v>
+      <c r="E225" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="F225" s="11">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G225" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="9" t="s">
-        <v>249</v>
+        <v>1</v>
+      </c>
+      <c r="H225" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I225" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
-      <c r="E226" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F226" s="7">
-        <v>-3.0</v>
+      <c r="E226" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F226" s="11">
+        <v>3</v>
       </c>
       <c r="G226" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H226" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I226" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
-      <c r="E227" s="5" t="s">
-        <v>209</v>
+      <c r="E227" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="F227" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G227" s="8">
-        <v>-1.0</v>
+        <v>1</v>
+      </c>
+      <c r="H227" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F228" s="11">
-        <v>3.0</v>
+      <c r="E228" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F228" s="10">
+        <v>3</v>
       </c>
       <c r="G228" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="11" t="s">
-        <v>253</v>
+        <v>1</v>
+      </c>
+      <c r="H228" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
-      <c r="E229" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F229" s="11">
-        <v>3.0</v>
+      <c r="E229" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F229" s="10">
+        <v>3</v>
       </c>
       <c r="G229" s="8">
-        <v>-1.0</v>
-      </c>
-      <c r="I229" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H229" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>255</v>
       </c>
@@ -5595,38 +5705,57 @@
       </c>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
-      <c r="E230" s="5" t="s">
-        <v>209</v>
+      <c r="E230" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="F230" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G230" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="9" t="s">
         <v>256</v>
+      </c>
+      <c r="F231" s="7">
+        <v>-3</v>
+      </c>
+      <c r="G231" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
-      <c r="E232" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F232" s="7">
-        <v>3.0</v>
+      <c r="E232" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F232" s="11">
+        <v>3</v>
       </c>
       <c r="G232" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="5" t="s">
-        <v>257</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>8</v>
@@ -5634,18 +5763,18 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F233" s="7">
-        <v>3.0</v>
+        <v>256</v>
+      </c>
+      <c r="F233" s="11">
+        <v>3</v>
       </c>
       <c r="G233" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="5" t="s">
-        <v>259</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>8</v>
@@ -5653,1460 +5782,2007 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F234" s="7">
-        <v>-3.0</v>
+        <v>256</v>
+      </c>
+      <c r="F234" s="11">
+        <v>3</v>
       </c>
       <c r="G234" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="11" t="s">
-        <v>260</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="16"/>
       <c r="E235" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F235" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G235" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F235" s="17">
+        <v>3</v>
+      </c>
+      <c r="G235" s="17">
+        <v>1</v>
+      </c>
+      <c r="H235" s="18"/>
+      <c r="I235" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J235" s="15"/>
+      <c r="K235" s="15"/>
+      <c r="L235" s="15"/>
+      <c r="M235" s="15"/>
+      <c r="N235" s="15"/>
+      <c r="O235" s="15"/>
+      <c r="P235" s="15"/>
+      <c r="Q235" s="15"/>
+      <c r="R235" s="15"/>
+      <c r="S235" s="15"/>
+      <c r="T235" s="15"/>
+      <c r="U235" s="15"/>
+      <c r="V235" s="15"/>
+      <c r="W235" s="15"/>
+      <c r="X235" s="15"/>
+      <c r="Y235" s="15"/>
+      <c r="Z235" s="15"/>
+    </row>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="16"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F236" s="17">
+        <v>3</v>
+      </c>
+      <c r="G236" s="17">
+        <v>1</v>
+      </c>
+      <c r="H236" s="18"/>
+      <c r="I236" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="15"/>
+      <c r="M236" s="15"/>
+      <c r="N236" s="15"/>
+      <c r="O236" s="15"/>
+      <c r="P236" s="15"/>
+      <c r="Q236" s="15"/>
+      <c r="R236" s="15"/>
+      <c r="S236" s="15"/>
+      <c r="T236" s="15"/>
+      <c r="U236" s="15"/>
+      <c r="V236" s="15"/>
+      <c r="W236" s="15"/>
+      <c r="X236" s="15"/>
+      <c r="Y236" s="15"/>
+      <c r="Z236" s="15"/>
+    </row>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F237" s="17">
+        <v>3</v>
+      </c>
+      <c r="G237" s="17">
+        <v>1</v>
+      </c>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="15"/>
+      <c r="M237" s="15"/>
+      <c r="N237" s="15"/>
+      <c r="O237" s="15"/>
+      <c r="P237" s="15"/>
+      <c r="Q237" s="15"/>
+      <c r="R237" s="15"/>
+      <c r="S237" s="15"/>
+      <c r="T237" s="15"/>
+      <c r="U237" s="15"/>
+      <c r="V237" s="15"/>
+      <c r="W237" s="15"/>
+      <c r="X237" s="15"/>
+      <c r="Y237" s="15"/>
+      <c r="Z237" s="15"/>
+    </row>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F238" s="17">
+        <v>3</v>
+      </c>
+      <c r="G238" s="17">
+        <v>1</v>
+      </c>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J238" s="15"/>
+      <c r="K238" s="15"/>
+      <c r="L238" s="15"/>
+      <c r="M238" s="15"/>
+      <c r="N238" s="15"/>
+      <c r="O238" s="15"/>
+      <c r="P238" s="15"/>
+      <c r="Q238" s="15"/>
+      <c r="R238" s="15"/>
+      <c r="S238" s="15"/>
+      <c r="T238" s="15"/>
+      <c r="U238" s="15"/>
+      <c r="V238" s="15"/>
+      <c r="W238" s="15"/>
+      <c r="X238" s="15"/>
+      <c r="Y238" s="15"/>
+      <c r="Z238" s="15"/>
+    </row>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F239" s="17">
+        <v>3</v>
+      </c>
+      <c r="G239" s="17">
+        <v>1</v>
+      </c>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J239" s="15"/>
+      <c r="K239" s="15"/>
+      <c r="L239" s="15"/>
+      <c r="M239" s="15"/>
+      <c r="N239" s="15"/>
+      <c r="O239" s="15"/>
+      <c r="P239" s="15"/>
+      <c r="Q239" s="15"/>
+      <c r="R239" s="15"/>
+      <c r="S239" s="15"/>
+      <c r="T239" s="15"/>
+      <c r="U239" s="15"/>
+      <c r="V239" s="15"/>
+      <c r="W239" s="15"/>
+      <c r="X239" s="15"/>
+      <c r="Y239" s="15"/>
+      <c r="Z239" s="15"/>
+    </row>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="16"/>
+      <c r="D240" s="16"/>
+      <c r="E240" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F240" s="17">
+        <v>3</v>
+      </c>
+      <c r="G240" s="17">
+        <v>1</v>
+      </c>
+      <c r="H240" s="18"/>
+      <c r="I240" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J240" s="15"/>
+      <c r="K240" s="15"/>
+      <c r="L240" s="15"/>
+      <c r="M240" s="15"/>
+      <c r="N240" s="15"/>
+      <c r="O240" s="15"/>
+      <c r="P240" s="15"/>
+      <c r="Q240" s="15"/>
+      <c r="R240" s="15"/>
+      <c r="S240" s="15"/>
+      <c r="T240" s="15"/>
+      <c r="U240" s="15"/>
+      <c r="V240" s="15"/>
+      <c r="W240" s="15"/>
+      <c r="X240" s="15"/>
+      <c r="Y240" s="15"/>
+      <c r="Z240" s="15"/>
+    </row>
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F241" s="17">
+        <v>3</v>
+      </c>
+      <c r="G241" s="17">
+        <v>1</v>
+      </c>
+      <c r="H241" s="18"/>
+      <c r="I241" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J241" s="15"/>
+      <c r="K241" s="15"/>
+      <c r="L241" s="15"/>
+      <c r="M241" s="15"/>
+      <c r="N241" s="15"/>
+      <c r="O241" s="15"/>
+      <c r="P241" s="15"/>
+      <c r="Q241" s="15"/>
+      <c r="R241" s="15"/>
+      <c r="S241" s="15"/>
+      <c r="T241" s="15"/>
+      <c r="U241" s="15"/>
+      <c r="V241" s="15"/>
+      <c r="W241" s="15"/>
+      <c r="X241" s="15"/>
+      <c r="Y241" s="15"/>
+      <c r="Z241" s="15"/>
+    </row>
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="16"/>
+      <c r="D242" s="16"/>
+      <c r="E242" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F242" s="17">
+        <v>3</v>
+      </c>
+      <c r="G242" s="17">
+        <v>1</v>
+      </c>
+      <c r="H242" s="18"/>
+      <c r="I242" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J242" s="15"/>
+      <c r="K242" s="15"/>
+      <c r="L242" s="15"/>
+      <c r="M242" s="15"/>
+      <c r="N242" s="15"/>
+      <c r="O242" s="15"/>
+      <c r="P242" s="15"/>
+      <c r="Q242" s="15"/>
+      <c r="R242" s="15"/>
+      <c r="S242" s="15"/>
+      <c r="T242" s="15"/>
+      <c r="U242" s="15"/>
+      <c r="V242" s="15"/>
+      <c r="W242" s="15"/>
+      <c r="X242" s="15"/>
+      <c r="Y242" s="15"/>
+      <c r="Z242" s="15"/>
+    </row>
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F243" s="17">
+        <v>3</v>
+      </c>
+      <c r="G243" s="17">
+        <v>1</v>
+      </c>
+      <c r="H243" s="18"/>
+      <c r="I243" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J243" s="15"/>
+      <c r="K243" s="15"/>
+      <c r="L243" s="15"/>
+      <c r="M243" s="15"/>
+      <c r="N243" s="15"/>
+      <c r="O243" s="15"/>
+      <c r="P243" s="15"/>
+      <c r="Q243" s="15"/>
+      <c r="R243" s="15"/>
+      <c r="S243" s="15"/>
+      <c r="T243" s="15"/>
+      <c r="U243" s="15"/>
+      <c r="V243" s="15"/>
+      <c r="W243" s="15"/>
+      <c r="X243" s="15"/>
+      <c r="Y243" s="15"/>
+      <c r="Z243" s="15"/>
+    </row>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
+      <c r="E244" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F244" s="17">
+        <v>3</v>
+      </c>
+      <c r="G244" s="17">
+        <v>1</v>
+      </c>
+      <c r="H244" s="18"/>
+      <c r="I244" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J244" s="15"/>
+      <c r="K244" s="15"/>
+      <c r="L244" s="15"/>
+      <c r="M244" s="15"/>
+      <c r="N244" s="15"/>
+      <c r="O244" s="15"/>
+      <c r="P244" s="15"/>
+      <c r="Q244" s="15"/>
+      <c r="R244" s="15"/>
+      <c r="S244" s="15"/>
+      <c r="T244" s="15"/>
+      <c r="U244" s="15"/>
+      <c r="V244" s="15"/>
+      <c r="W244" s="15"/>
+      <c r="X244" s="15"/>
+      <c r="Y244" s="15"/>
+      <c r="Z244" s="15"/>
+    </row>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16"/>
+      <c r="D245" s="16"/>
+      <c r="E245" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F245" s="17">
+        <v>3</v>
+      </c>
+      <c r="G245" s="17">
+        <v>1</v>
+      </c>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J245" s="15"/>
+      <c r="K245" s="15"/>
+      <c r="L245" s="15"/>
+      <c r="M245" s="15"/>
+      <c r="N245" s="15"/>
+      <c r="O245" s="15"/>
+      <c r="P245" s="15"/>
+      <c r="Q245" s="15"/>
+      <c r="R245" s="15"/>
+      <c r="S245" s="15"/>
+      <c r="T245" s="15"/>
+      <c r="U245" s="15"/>
+      <c r="V245" s="15"/>
+      <c r="W245" s="15"/>
+      <c r="X245" s="15"/>
+      <c r="Y245" s="15"/>
+      <c r="Z245" s="15"/>
+    </row>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F246" s="17">
+        <v>3</v>
+      </c>
+      <c r="G246" s="17">
+        <v>1</v>
+      </c>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J246" s="15"/>
+      <c r="K246" s="15"/>
+      <c r="L246" s="15"/>
+      <c r="M246" s="15"/>
+      <c r="N246" s="15"/>
+      <c r="O246" s="15"/>
+      <c r="P246" s="15"/>
+      <c r="Q246" s="15"/>
+      <c r="R246" s="15"/>
+      <c r="S246" s="15"/>
+      <c r="T246" s="15"/>
+      <c r="U246" s="15"/>
+      <c r="V246" s="15"/>
+      <c r="W246" s="15"/>
+      <c r="X246" s="15"/>
+      <c r="Y246" s="15"/>
+      <c r="Z246" s="15"/>
+    </row>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16"/>
+      <c r="D247" s="16"/>
+      <c r="E247" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F247" s="17">
+        <v>3</v>
+      </c>
+      <c r="G247" s="17">
+        <v>1</v>
+      </c>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J247" s="15"/>
+      <c r="K247" s="15"/>
+      <c r="L247" s="15"/>
+      <c r="M247" s="15"/>
+      <c r="N247" s="15"/>
+      <c r="O247" s="15"/>
+      <c r="P247" s="15"/>
+      <c r="Q247" s="15"/>
+      <c r="R247" s="15"/>
+      <c r="S247" s="15"/>
+      <c r="T247" s="15"/>
+      <c r="U247" s="15"/>
+      <c r="V247" s="15"/>
+      <c r="W247" s="15"/>
+      <c r="X247" s="15"/>
+      <c r="Y247" s="15"/>
+      <c r="Z247" s="15"/>
+    </row>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16"/>
+      <c r="E248" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F248" s="17">
+        <v>3</v>
+      </c>
+      <c r="G248" s="17">
+        <v>1</v>
+      </c>
+      <c r="H248" s="18"/>
+      <c r="I248" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J248" s="15"/>
+      <c r="K248" s="15"/>
+      <c r="L248" s="15"/>
+      <c r="M248" s="15"/>
+      <c r="N248" s="15"/>
+      <c r="O248" s="15"/>
+      <c r="P248" s="15"/>
+      <c r="Q248" s="15"/>
+      <c r="R248" s="15"/>
+      <c r="S248" s="15"/>
+      <c r="T248" s="15"/>
+      <c r="U248" s="15"/>
+      <c r="V248" s="15"/>
+      <c r="W248" s="15"/>
+      <c r="X248" s="15"/>
+      <c r="Y248" s="15"/>
+      <c r="Z248" s="15"/>
+    </row>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16"/>
+      <c r="D249" s="16"/>
+      <c r="E249" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F249" s="17">
+        <v>3</v>
+      </c>
+      <c r="G249" s="17">
+        <v>1</v>
+      </c>
+      <c r="H249" s="18"/>
+      <c r="I249" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J249" s="15"/>
+      <c r="K249" s="15"/>
+      <c r="L249" s="15"/>
+      <c r="M249" s="15"/>
+      <c r="N249" s="15"/>
+      <c r="O249" s="15"/>
+      <c r="P249" s="15"/>
+      <c r="Q249" s="15"/>
+      <c r="R249" s="15"/>
+      <c r="S249" s="15"/>
+      <c r="T249" s="15"/>
+      <c r="U249" s="15"/>
+      <c r="V249" s="15"/>
+      <c r="W249" s="15"/>
+      <c r="X249" s="15"/>
+      <c r="Y249" s="15"/>
+      <c r="Z249" s="15"/>
+    </row>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F236" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G236" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="11" t="s">
+      <c r="B250" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F237" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G237" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="11" t="s">
+      <c r="F250" s="11">
+        <v>3</v>
+      </c>
+      <c r="G250" s="11">
+        <v>1</v>
+      </c>
+      <c r="I250" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E238" s="11" t="s">
+    </row>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F238" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G238" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="I238" s="11" t="s">
+      <c r="B251" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F251" s="11">
+        <v>3</v>
+      </c>
+      <c r="G251" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="11" t="s">
+      <c r="B252" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F252" s="11">
+        <v>3</v>
+      </c>
+      <c r="G252" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F239" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G239" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="11" t="s">
+      <c r="B253" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F253" s="11">
+        <v>3</v>
+      </c>
+      <c r="G253" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F240" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G240" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="11" t="s">
+      <c r="B254" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F254" s="11">
+        <v>3</v>
+      </c>
+      <c r="G254" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F241" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G241" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="11" t="s">
+      <c r="B255" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F255" s="11">
+        <v>3</v>
+      </c>
+      <c r="G255" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E242" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F242" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G242" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="11" t="s">
+      <c r="B256" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F256" s="11">
+        <v>3</v>
+      </c>
+      <c r="G256" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E243" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F243" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G243" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="11" t="s">
+      <c r="B257" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F257" s="11">
+        <v>3</v>
+      </c>
+      <c r="G257" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E244" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F244" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G244" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="11" t="s">
+      <c r="B258" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F258" s="11">
+        <v>3</v>
+      </c>
+      <c r="G258" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E245" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F245" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G245" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="11" t="s">
+      <c r="B259" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F259" s="11">
+        <v>3</v>
+      </c>
+      <c r="G259" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F246" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G246" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="11" t="s">
+      <c r="B260" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F260" s="11">
+        <v>3</v>
+      </c>
+      <c r="G260" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E247" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F247" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G247" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="11" t="s">
+      <c r="B261" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F261" s="9">
+        <v>3</v>
+      </c>
+      <c r="G261" s="9">
+        <v>1</v>
+      </c>
+      <c r="I261" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E248" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F248" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G248" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="11" t="s">
+    </row>
+    <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F249" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G249" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="I249" s="11" t="s">
+      <c r="B262" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F262" s="11">
+        <v>3</v>
+      </c>
+      <c r="G262" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="11" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="11" t="s">
+      <c r="B263" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F263" s="11">
+        <v>3</v>
+      </c>
+      <c r="G263" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E250" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F250" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G250" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="11" t="s">
+      <c r="B264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F264" s="11">
+        <v>3</v>
+      </c>
+      <c r="G264" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B251" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E251" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F251" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G251" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="11" t="s">
+      <c r="B265" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F265" s="11">
+        <v>3</v>
+      </c>
+      <c r="G265" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B252" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F252" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G252" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="11" t="s">
+      <c r="B266" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F266" s="11">
+        <v>3</v>
+      </c>
+      <c r="G266" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B253" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F253" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G253" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="11" t="s">
+      <c r="B267" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F267" s="11">
+        <v>3</v>
+      </c>
+      <c r="G267" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B254" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E254" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F254" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G254" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="11" t="s">
+      <c r="B268" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F268" s="11">
+        <v>3</v>
+      </c>
+      <c r="G268" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B255" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F255" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G255" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="11" t="s">
+      <c r="B270" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F270" s="11">
+        <v>3</v>
+      </c>
+      <c r="G270" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E256" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F256" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G256" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="11" t="s">
+      <c r="B271" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F271" s="11">
+        <v>3</v>
+      </c>
+      <c r="G271" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B258" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F258" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G258" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="11" t="s">
+      <c r="B272" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B259" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E259" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F259" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G259" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="5" t="s">
+      <c r="F272" s="7">
+        <v>3</v>
+      </c>
+      <c r="G272" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="9" t="s">
+      <c r="B273" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F273" s="7">
+        <v>-3</v>
+      </c>
+      <c r="G273" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F260" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G260" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F261" s="7">
-        <v>-3.0</v>
-      </c>
-      <c r="G261" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F262" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G262" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F263" s="7">
-        <v>-3.0</v>
-      </c>
-      <c r="G263" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I263" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B264" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F264" s="7">
-        <v>-3.0</v>
-      </c>
-      <c r="G264" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I264" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="265" ht="16.5" customHeight="1">
-      <c r="A265" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F265" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G265" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F266" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G266" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E267" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F267" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G267" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="I267" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E268" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F268" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G268" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="I268" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E269" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F269" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G269" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="5"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="5"/>
-      <c r="D270" s="5"/>
-      <c r="E270" s="9"/>
-      <c r="F270" s="7"/>
-      <c r="I270" s="11"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="5"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="5"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="9"/>
-      <c r="F271" s="7"/>
-      <c r="I271" s="11"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="19"/>
-      <c r="B272" s="19"/>
-      <c r="I272" s="11"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="11"/>
-      <c r="B273" s="6"/>
-      <c r="E273" s="11"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
-      <c r="H273" s="11"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="9"/>
-      <c r="B274" s="6"/>
+      <c r="B274" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
-      <c r="F274" s="7"/>
-      <c r="H274" s="11"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="11"/>
-      <c r="B275" s="6"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
-      <c r="H275" s="11"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="9"/>
-      <c r="B276" s="6"/>
+      <c r="E274" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F274" s="11">
+        <v>3</v>
+      </c>
+      <c r="G274" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F275" s="7">
+        <v>-3</v>
+      </c>
+      <c r="G275" s="8">
+        <v>1</v>
+      </c>
+      <c r="I275" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
-      <c r="F276" s="10"/>
-      <c r="H276" s="11"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="9"/>
-      <c r="B277" s="6"/>
+      <c r="E276" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F276" s="7">
+        <v>-3</v>
+      </c>
+      <c r="G276" s="8">
+        <v>1</v>
+      </c>
+      <c r="I276" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="10"/>
-      <c r="H277" s="11"/>
-      <c r="I277" s="17"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="9"/>
-      <c r="B278" s="6"/>
+      <c r="E277" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F277" s="11">
+        <v>3</v>
+      </c>
+      <c r="G277" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
-      <c r="F278" s="7"/>
-      <c r="H278" s="11"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
-    <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
-    <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
-    <row r="1022" ht="15.75" customHeight="1"/>
-    <row r="1023" ht="15.75" customHeight="1"/>
-    <row r="1024" ht="15.75" customHeight="1"/>
-    <row r="1025" ht="15.75" customHeight="1"/>
+      <c r="E278" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F278" s="7">
+        <v>3</v>
+      </c>
+      <c r="G278" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F279" s="11">
+        <v>3</v>
+      </c>
+      <c r="G279" s="11">
+        <v>1</v>
+      </c>
+      <c r="I279" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F280" s="11">
+        <v>3</v>
+      </c>
+      <c r="G280" s="11">
+        <v>1</v>
+      </c>
+      <c r="I280" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F281" s="11">
+        <v>3</v>
+      </c>
+      <c r="G281" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="5"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="7"/>
+      <c r="I282" s="11"/>
+    </row>
+    <row r="283" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="5"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="7"/>
+      <c r="I283" s="11"/>
+    </row>
+    <row r="284" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="19"/>
+      <c r="B284" s="21"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
+      <c r="E284" s="22"/>
+      <c r="F284" s="22"/>
+      <c r="G284" s="22"/>
+      <c r="I284" s="11"/>
+    </row>
+    <row r="285" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="11"/>
+      <c r="B285" s="6"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+    </row>
+    <row r="286" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="9"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="7"/>
+      <c r="H286" s="11"/>
+    </row>
+    <row r="287" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="11"/>
+      <c r="B287" s="6"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+    </row>
+    <row r="288" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="9"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="10"/>
+      <c r="H288" s="11"/>
+    </row>
+    <row r="289" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="9"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="10"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="13"/>
+    </row>
+    <row r="290" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="9"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="7"/>
+      <c r="H290" s="11"/>
+    </row>
+    <row r="291" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1035" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1036" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1037" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B272:G272"/>
+    <mergeCell ref="B284:G284"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>